--- a/task.xlsx
+++ b/task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HocTap\Bai tap nop\Nopbai\elearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3AF6113-9E06-460B-9516-5700E3029F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7198396-050F-4A0F-9B0A-A76CFCFEFCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="25440" windowHeight="20520" xr2:uid="{B1693C4B-6A4A-49C8-A60C-F909AE8532A1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -105,6 +105,30 @@
   </si>
   <si>
     <t>Đăng Nhập</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>UserPanel</t>
+  </si>
+  <si>
+    <t>AdminPanel</t>
+  </si>
+  <si>
+    <t>https://github.com/lixbon/elearning-bc04-nhom3.git</t>
+  </si>
+  <si>
+    <t>https://youtu.be/kAvjOu_yhHo</t>
+  </si>
+  <si>
+    <t>https://elearning-bc04-nhom3.vercel.app/</t>
+  </si>
+  <si>
+    <t>https://elearning-bc04-nhom3-git-quang-lixbon.vercel.app</t>
   </si>
 </sst>
 </file>
@@ -196,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -264,11 +288,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -305,6 +344,12 @@
     </xf>
     <xf numFmtId="16" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488FE171-D317-4391-845D-D49881CBD2E3}">
-  <dimension ref="B1:J9"/>
+  <dimension ref="B1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,7 +910,65 @@
       </c>
       <c r="J9" s="9"/>
     </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
